--- a/result/GCS_analysis.xlsx
+++ b/result/GCS_analysis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Google Drive\Work\AIIMS\TBI_analysis\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="21015" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="GCS_analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Plots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="50">
   <si>
     <t>EYE</t>
   </si>
@@ -157,21 +163,6 @@
     <t xml:space="preserve">Out of 128 patients 121 (94.53%) reported eye opening with pain stimulus, rest 7 (5.46%) cases reported no eye opening. All 128 (100%) TBI patients were intubated and their GCS verbal score was T (intubated). All 128 TBI patients (100%) had severe brain injury with total GCS score &lt;=8. Of 128 TBI patients 16 (12.5%) show no motor response at all, 26 (20.31%) show response of extension to pain, 10 (7.81%) show response of flexion to pain, 18 (14.06%) show response of withdrawl from pain, majority of patients 56 (43.75%) show response to localize pain, 2 cases (1.56%) obeyed commands and were able to show motor movements accordingly. </t>
   </si>
   <si>
-    <t>E2VTM1</t>
-  </si>
-  <si>
-    <t>E2VTM2</t>
-  </si>
-  <si>
-    <t>E2VTM3</t>
-  </si>
-  <si>
-    <t>E2VTM4</t>
-  </si>
-  <si>
-    <t>E2VTM6</t>
-  </si>
-  <si>
     <t>CASE PERCENT</t>
   </si>
   <si>
@@ -184,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,6 +833,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,7 +886,4756 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>eye gcs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.87541115456806E-2"/>
+          <c:y val="0.36003960217550274"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14722222222222212"/>
+                  <c:y val="-6.9444444444444448E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GCS_analysis!$H$112:$H$113</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No eye opening</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>To pain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCS_analysis!$A$152:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94.53125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.46875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>motor gcs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5775980227918502E-2"/>
+          <c:y val="0.19398197647777607"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8310078031432606E-3"/>
+                  <c:y val="5.6395792853819057E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0784998834122065E-3"/>
+                  <c:y val="-8.270453843722835E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4869266683782777E-3"/>
+                  <c:y val="-1.5322125170058362E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8871609798775152E-2"/>
+                  <c:y val="-3.011081948089822E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1336819282079532E-2"/>
+                  <c:y val="-8.270453843722835E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0159382979795859E-2"/>
+                  <c:y val="1.5887269510977867E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GCS_analysis!$H$124:$H$129</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No motor response</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Extension to pain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flexion to pain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Withdrawal from pain</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localizes pain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Obeys commands</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCS_analysis!$C$152:$C$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>total gcs score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2932714871011631E-2"/>
+          <c:y val="0.19444444444444445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2850695821295719E-2"/>
+                  <c:y val="1.5656167979002624E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>GCS_analysis!$E$154:$E$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCS_analysis!$D$154:$D$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.28125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.03125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>gcs type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8025949189169241E-2"/>
+          <c:y val="0.16666666666666666"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.929799997612176E-2"/>
+                  <c:y val="5.5555555555555511E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3082285673351502E-2"/>
+                  <c:y val="1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GCS_analysis!$F$152:$F$158</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>E1VTM1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E1VTM2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E1VTM3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E1VTM4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E1VTM5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E1VTM6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E2VTM5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCS_analysis!$G$152:$G$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.28125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.46875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293912</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>58921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135121</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299045</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603845</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75931</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606878</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177984</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,7 +5681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,9 +5713,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,6 +5748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1176,16 +5924,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:J176"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
@@ -1196,7 +5946,7 @@
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +5965,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1234,7 +5984,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1253,7 +6003,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1272,7 +6022,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1291,7 +6041,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1310,7 +6060,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1329,7 +6079,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1348,7 +6098,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1367,7 +6117,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1386,7 +6136,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1405,7 +6155,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -1424,7 +6174,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1443,7 +6193,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1462,7 +6212,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1481,7 +6231,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1500,7 +6250,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -1519,7 +6269,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -1538,7 +6288,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1557,7 +6307,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -1576,7 +6326,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -1595,7 +6345,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -1614,7 +6364,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -1633,7 +6383,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -1652,7 +6402,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -1671,7 +6421,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -1690,7 +6440,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -1709,7 +6459,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -1728,7 +6478,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -1747,7 +6497,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -1766,7 +6516,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -1785,7 +6535,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -1804,7 +6554,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -1823,7 +6573,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -1842,7 +6592,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -1861,7 +6611,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -1880,7 +6630,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1899,7 +6649,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -1918,7 +6668,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -1937,7 +6687,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -1956,7 +6706,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -1975,7 +6725,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -1994,7 +6744,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -2013,7 +6763,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -2032,7 +6782,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -2051,7 +6801,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -2070,7 +6820,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -2089,7 +6839,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -2108,7 +6858,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -2127,7 +6877,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>1</v>
       </c>
@@ -2146,7 +6896,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -2165,7 +6915,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -2184,7 +6934,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -2203,7 +6953,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -2222,7 +6972,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>1</v>
       </c>
@@ -2241,7 +6991,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -2260,7 +7010,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -2279,7 +7029,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -2298,7 +7048,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -2317,7 +7067,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -2336,7 +7086,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -2355,7 +7105,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>1</v>
       </c>
@@ -2374,7 +7124,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -2393,7 +7143,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -2412,7 +7162,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -2431,7 +7181,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>1</v>
       </c>
@@ -2450,7 +7200,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>1</v>
       </c>
@@ -2469,7 +7219,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -2488,7 +7238,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -2507,7 +7257,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -2526,7 +7276,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -2545,7 +7295,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -2564,7 +7314,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -2583,7 +7333,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -2602,7 +7352,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -2621,7 +7371,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -2640,7 +7390,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -2659,7 +7409,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>1</v>
       </c>
@@ -2678,7 +7428,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -2697,7 +7447,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -2716,7 +7466,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>1</v>
       </c>
@@ -2735,7 +7485,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -2754,7 +7504,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -2773,7 +7523,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>1</v>
       </c>
@@ -2792,7 +7542,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -2811,7 +7561,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>1</v>
       </c>
@@ -2830,7 +7580,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -2849,7 +7599,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -2868,7 +7618,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -2887,7 +7637,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -2906,7 +7656,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>2</v>
       </c>
@@ -2925,7 +7675,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -2944,7 +7694,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -2963,7 +7713,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -2982,7 +7732,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>1</v>
       </c>
@@ -3001,7 +7751,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -3020,7 +7770,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -3039,7 +7789,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>1</v>
       </c>
@@ -3058,7 +7808,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>2</v>
       </c>
@@ -3077,7 +7827,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>1</v>
       </c>
@@ -3096,7 +7846,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -3115,7 +7865,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -3134,7 +7884,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -3153,7 +7903,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -3172,7 +7922,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -3191,7 +7941,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>1</v>
       </c>
@@ -3210,7 +7960,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>1</v>
       </c>
@@ -3229,7 +7979,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>1</v>
       </c>
@@ -3248,7 +7998,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1">
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -3267,7 +8017,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -3288,7 +8038,7 @@
       </c>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>1</v>
       </c>
@@ -3304,14 +8054,14 @@
       <c r="E111" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="H111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -3328,13 +8078,13 @@
         <v>8</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I112" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -3357,7 +8107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -3374,13 +8124,13 @@
         <v>7</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>1</v>
       </c>
@@ -3396,14 +8146,14 @@
       <c r="E115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="H115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -3424,7 +8174,7 @@
       </c>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -3447,7 +8197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>1</v>
       </c>
@@ -3470,7 +8220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>2</v>
       </c>
@@ -3493,7 +8243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -3516,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -3539,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1">
+    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>1</v>
       </c>
@@ -3562,7 +8312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -3583,7 +8333,7 @@
       </c>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>1</v>
       </c>
@@ -3600,13 +8350,13 @@
         <v>8</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I124" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -3623,13 +8373,13 @@
         <v>8</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I125" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -3646,13 +8396,13 @@
         <v>7</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I126" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -3669,13 +8419,13 @@
         <v>11</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I127" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>2</v>
       </c>
@@ -3692,13 +8442,13 @@
         <v>9</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I128" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>1</v>
       </c>
@@ -3715,14 +8465,14 @@
         <v>8</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I129" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="131" spans="1:11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>31</v>
       </c>
@@ -3745,7 +8495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>40</v>
@@ -3780,7 +8530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>121</v>
       </c>
@@ -3815,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>7</v>
       </c>
@@ -3848,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12">
@@ -3871,7 +8621,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12">
@@ -3894,7 +8644,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12">
@@ -3917,7 +8667,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12">
@@ -3940,7 +8690,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -3951,17 +8701,17 @@
         <v>7</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G139" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -3971,18 +8721,14 @@
       <c r="E140" s="12">
         <v>8</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G140" s="7">
-        <v>0</v>
-      </c>
+      <c r="F140" s="6"/>
+      <c r="G140" s="7"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -3992,18 +8738,14 @@
       <c r="E141" s="12">
         <v>9</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G141" s="7">
-        <v>0</v>
-      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="7"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4013,18 +8755,14 @@
       <c r="E142" s="12">
         <v>10</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G142" s="7">
-        <v>0</v>
-      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="7"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4034,18 +8772,14 @@
       <c r="E143" s="12">
         <v>11</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" s="7">
-        <v>7</v>
-      </c>
+      <c r="F143" s="31"/>
+      <c r="G143" s="32"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -4055,18 +8789,14 @@
       <c r="E144" s="12">
         <v>12</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G144" s="7">
-        <v>0</v>
-      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -4083,7 +8813,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -4100,7 +8830,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -4117,7 +8847,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" ht="15.75" thickBot="1">
+    <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>128</v>
       </c>
@@ -4142,10 +8872,10 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>35</v>
       </c>
@@ -4156,7 +8886,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>0</v>
       </c>
@@ -4176,10 +8906,10 @@
         <v>4</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>94.53125</v>
       </c>
@@ -4203,7 +8933,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>5.46875</v>
       </c>
@@ -4225,7 +8955,7 @@
         <v>20.3125</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12">
@@ -4245,7 +8975,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12">
@@ -4266,7 +8996,7 @@
       </c>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12">
@@ -4287,7 +9017,7 @@
       </c>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12">
@@ -4308,7 +9038,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -4319,14 +9049,15 @@
         <v>7</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G158" s="7">
-        <v>0</v>
+        <f>7/128*100</f>
+        <v>5.46875</v>
       </c>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -4336,15 +9067,11 @@
       <c r="E159" s="7">
         <v>8</v>
       </c>
-      <c r="F159" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G159" s="7">
-        <v>0</v>
-      </c>
+      <c r="F159" s="6"/>
+      <c r="G159" s="7"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -4354,16 +9081,12 @@
       <c r="E160" s="7">
         <v>9</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G160" s="7">
-        <v>0</v>
-      </c>
+      <c r="F160" s="6"/>
+      <c r="G160" s="7"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -4373,16 +9096,12 @@
       <c r="E161" s="7">
         <v>10</v>
       </c>
-      <c r="F161" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G161" s="7">
-        <v>0</v>
-      </c>
+      <c r="F161" s="6"/>
+      <c r="G161" s="7"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -4392,17 +9111,12 @@
       <c r="E162" s="7">
         <v>11</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="7">
-        <f>7/128*100</f>
-        <v>5.46875</v>
-      </c>
+      <c r="F162" s="31"/>
+      <c r="G162" s="32"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -4412,16 +9126,12 @@
       <c r="E163" s="7">
         <v>12</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G163" s="7">
-        <v>0</v>
-      </c>
+      <c r="F163" s="6"/>
+      <c r="G163" s="7"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -4432,13 +9142,11 @@
         <v>13</v>
       </c>
       <c r="F164" s="6"/>
-      <c r="G164" s="7">
-        <v>0</v>
-      </c>
+      <c r="G164" s="7"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -4449,13 +9157,11 @@
         <v>14</v>
       </c>
       <c r="F165" s="6"/>
-      <c r="G165" s="7">
-        <v>0</v>
-      </c>
+      <c r="G165" s="7"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -4466,13 +9172,11 @@
         <v>15</v>
       </c>
       <c r="F166" s="6"/>
-      <c r="G166" s="7">
-        <v>0</v>
-      </c>
+      <c r="G166" s="7"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" thickBot="1">
+    <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>100</v>
       </c>
@@ -4496,9 +9200,9 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" thickBot="1">
+    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4509,7 +9213,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="22" t="s">
         <v>46</v>
       </c>
@@ -4523,7 +9227,7 @@
       <c r="I169" s="23"/>
       <c r="J169" s="24"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="26"/>
       <c r="C170" s="26"/>
@@ -4535,7 +9239,7 @@
       <c r="I170" s="26"/>
       <c r="J170" s="27"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="26"/>
       <c r="C171" s="26"/>
@@ -4547,7 +9251,7 @@
       <c r="I171" s="26"/>
       <c r="J171" s="27"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="26"/>
       <c r="C172" s="26"/>
@@ -4559,7 +9263,7 @@
       <c r="I172" s="26"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="26"/>
       <c r="C173" s="26"/>
@@ -4571,7 +9275,7 @@
       <c r="I173" s="26"/>
       <c r="J173" s="27"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="26"/>
       <c r="C174" s="26"/>
@@ -4583,7 +9287,7 @@
       <c r="I174" s="26"/>
       <c r="J174" s="27"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
@@ -4595,7 +9299,7 @@
       <c r="I175" s="26"/>
       <c r="J175" s="27"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" thickBot="1">
+    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -4608,9 +9312,27 @@
       <c r="J176" s="30"/>
     </row>
   </sheetData>
+  <sortState ref="H112:I114">
+    <sortCondition ref="I111"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A169:J176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>